--- a/USHE_Automation/src/testData/TestData.xlsx
+++ b/USHE_Automation/src/testData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Person" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,16 @@
     <sheet name="SecNavigation" sheetId="7" r:id="rId7"/>
     <sheet name="Genre" sheetId="9" r:id="rId8"/>
     <sheet name="Social" sheetId="10" r:id="rId9"/>
+    <sheet name="SampleTitles" sheetId="11" r:id="rId10"/>
+    <sheet name="FavTitle" sheetId="12" r:id="rId11"/>
+    <sheet name="VideoTitle" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="94">
   <si>
     <t>moderation_status</t>
   </si>
@@ -277,6 +280,33 @@
   </si>
   <si>
     <t>Link007Social</t>
+  </si>
+  <si>
+    <t>TestTitlewithImage</t>
+  </si>
+  <si>
+    <t>Title1</t>
+  </si>
+  <si>
+    <t>Test On Chrome20</t>
+  </si>
+  <si>
+    <t>Test On FF with todays date</t>
+  </si>
+  <si>
+    <t>The Little Rascals Save the Day - Trailer</t>
+  </si>
+  <si>
+    <t>2 Guns - Deleted Scene - Bring a Kid to Work Day</t>
+  </si>
+  <si>
+    <t>Bad Words - Film Clip - Nipples</t>
+  </si>
+  <si>
+    <t>The Meaning of Life - 30th Anniversary</t>
+  </si>
+  <si>
+    <t>Give Me Hope</t>
   </si>
 </sst>
 </file>
@@ -796,6 +826,110 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U2"/>
@@ -1275,8 +1409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
